--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_potential.xlsx
@@ -5553,7 +5553,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resp</t>
+          <t>Resp</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
